--- a/data/speech/significant_category_correlations_apa.xlsx
+++ b/data/speech/significant_category_correlations_apa.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Fmri_Forschung\Allerlei\JuliaS\GitHub\SubliminalVideoPriming\data\speech\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="28">
   <si>
     <t>Variable1</t>
   </si>
@@ -74,9 +80,6 @@
   </si>
   <si>
     <t>neg_syntactic_complexity</t>
-  </si>
-  <si>
-    <t>Group</t>
   </si>
   <si>
     <t>STAI2</t>
@@ -106,8 +109,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,22 +165,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -216,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,9 +263,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,6 +298,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,14 +474,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:D38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -492,7 +517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -506,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -514,55 +539,55 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.4741011902342975</v>
+        <v>0.47410119023429748</v>
       </c>
       <c r="D4">
-        <v>1.38688998172749E-06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>1.3868899817274899E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>0.90202522649650008</v>
+      </c>
+      <c r="D6">
+        <v>2.4991957590864579E-35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C5">
-        <v>-0.5667582627255553</v>
-      </c>
-      <c r="D5">
-        <v>2.605406344884042E-09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
       <c r="C7">
-        <v>0.9020252264965001</v>
+        <v>0.45649242910724541</v>
       </c>
       <c r="D7">
-        <v>2.499195759086458E-35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>3.7582394441629279E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -570,13 +595,13 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.4564924291072454</v>
+        <v>0.4628163701722709</v>
       </c>
       <c r="D8">
-        <v>3.758239444162928E-06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>2.6440007315160229E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -584,13 +609,13 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>0.4628163701722709</v>
+        <v>0.46523571580801892</v>
       </c>
       <c r="D9">
-        <v>2.644000731516023E-06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>2.306872611239215E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -598,13 +623,13 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>0.4652357158080189</v>
+        <v>0.51850222322450334</v>
       </c>
       <c r="D10">
-        <v>2.306872611239215E-06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>8.6453312845726472E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -612,13 +637,13 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>0.5185022232245033</v>
+        <v>-0.42385359218260932</v>
       </c>
       <c r="D11">
-        <v>8.645331284572647E-08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>2.0726700718036951E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -626,60 +651,60 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>-0.4238535921826093</v>
+        <v>-0.43544744750913822</v>
       </c>
       <c r="D12">
-        <v>2.072670071803695E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1.152989743250508E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>-0.4354474475091382</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1.152989743250508E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.72057376303562537</v>
       </c>
       <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>2.6685160777461421E-16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>0.7205737630356254</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2.668516077746142E-16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -688,12 +713,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -702,12 +727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -716,12 +741,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -730,91 +755,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.47410119023429748</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>1.3868899817274899E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>0.4741011902342975</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1.38688998172749E-06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.90202522649650008</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>2.4991957590864579E-35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C23">
-        <v>-0.5670758358475363</v>
-      </c>
-      <c r="D23">
-        <v>2.541244532152046E-09</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
       <c r="C24">
-        <v>0.9020252264965001</v>
+        <v>0.48567997012594649</v>
       </c>
       <c r="D24">
-        <v>2.499195759086458E-35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>6.9813573997475131E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0.43623334005978143</v>
       </c>
       <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>1.10718522126877E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -822,55 +847,55 @@
         <v>21</v>
       </c>
       <c r="C26">
-        <v>0.4856799701259465</v>
+        <v>0.46632702053952479</v>
       </c>
       <c r="D26">
-        <v>6.981357399747513E-07</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>2.1684751736476682E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
       <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>0.46761522455859972</v>
+      </c>
+      <c r="D27">
+        <v>2.0151994096119441E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>0.49488150954456173</v>
+      </c>
+      <c r="D28">
+        <v>3.9729688074906681E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="C27">
-        <v>0.4362333400597814</v>
-      </c>
-      <c r="D27">
-        <v>1.10718522126877E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28">
-        <v>0.4663270205395248</v>
-      </c>
-      <c r="D28">
-        <v>2.168475173647668E-06</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
       <c r="C29">
-        <v>0.4676152245585997</v>
+        <v>-0.44045396900382988</v>
       </c>
       <c r="D29">
-        <v>2.015199409611944E-06</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>8.8903967908931921E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -878,88 +903,88 @@
         <v>24</v>
       </c>
       <c r="C30">
-        <v>0.4948815095445617</v>
+        <v>-0.49502753345753903</v>
       </c>
       <c r="D30">
-        <v>3.972968807490668E-07</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>3.9370592396655653E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>-0.4404539690038299</v>
+        <v>0.72057376303562537</v>
       </c>
       <c r="D31">
-        <v>8.890396790893192E-06</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>2.6685160777461421E-16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>-0.495027533457539</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>3.937059239665565E-07</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>0.7205737630356254</v>
+        <v>0.42480979847573053</v>
       </c>
       <c r="D33">
-        <v>2.668516077746142E-16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>1.976399333596316E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
         <v>15</v>
       </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35">
+        <v>0.42480979847573053</v>
+      </c>
+      <c r="D35">
+        <v>1.976399333596316E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>17</v>
       </c>
-      <c r="C35">
-        <v>0.4248097984757305</v>
-      </c>
-      <c r="D35">
-        <v>1.976399333596316E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -968,63 +993,323 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>0.4248097984757305</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>1.976399333596316E-05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.47410119023429748</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.3868899817274899E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.90202522649650008</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.4991957590864579E-35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.45649242910724541</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.7582394441629279E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.4628163701722709</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.6440007315160229E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.46523571580801892</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.306872611239215E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.51850222322450334</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.6453312845726472E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-0.42385359218260932</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.0726700718036951E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-0.43544744750913822</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.152989743250508E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.48567997012594649</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.9813573997475131E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.43623334005978143</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.10718522126877E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.46632702053952479</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.1684751736476682E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.46761522455859972</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.0151994096119441E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.49488150954456173</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.9729688074906681E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-0.44045396900382988</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8.8903967908931921E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-0.49502753345753903</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3.9370592396655653E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.72057376303562537</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.6685160777461421E-16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.42480979847573053</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.976399333596316E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.42480979847573053</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.976399333596316E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/speech/significant_category_correlations_apa.xlsx
+++ b/data/speech/significant_category_correlations_apa.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Fmri_Forschung\Allerlei\JuliaS\GitHub\SubliminalVideoPriming\data\speech\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>Variable1</t>
   </si>
@@ -109,11 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,31 +156,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -231,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,10 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,7 +279,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,22 +454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:D38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -517,7 +489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -531,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -539,13 +511,13 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.47410119023429748</v>
+        <v>0.4741011902342975</v>
       </c>
       <c r="D4">
-        <v>1.3868899817274899E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.38688998172749E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -559,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -567,13 +539,13 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0.90202522649650008</v>
+        <v>0.9020252264965001</v>
       </c>
       <c r="D6">
-        <v>2.4991957590864579E-35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.499195759086458E-35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -581,13 +553,13 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.45649242910724541</v>
+        <v>0.4564924291072454</v>
       </c>
       <c r="D7">
-        <v>3.7582394441629279E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.758239444162928E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -598,10 +570,10 @@
         <v>0.4628163701722709</v>
       </c>
       <c r="D8">
-        <v>2.6440007315160229E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.644000731516023E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -609,13 +581,13 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>0.46523571580801892</v>
+        <v>0.4652357158080189</v>
       </c>
       <c r="D9">
-        <v>2.306872611239215E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.306872611239215E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -623,13 +595,13 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>0.51850222322450334</v>
+        <v>0.5185022232245033</v>
       </c>
       <c r="D10">
-        <v>8.6453312845726472E-8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.645331284572647E-08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -637,13 +609,13 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>-0.42385359218260932</v>
+        <v>-0.4238535921826093</v>
       </c>
       <c r="D11">
-        <v>2.0726700718036951E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.072670071803695E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -651,13 +623,13 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>-0.43544744750913822</v>
+        <v>-0.4354474475091382</v>
       </c>
       <c r="D12">
-        <v>1.152989743250508E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.152989743250508E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -671,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -679,13 +651,13 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>0.72057376303562537</v>
+        <v>0.7205737630356254</v>
       </c>
       <c r="D14">
-        <v>2.6685160777461421E-16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.668516077746142E-16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -699,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -713,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -727,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -741,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -755,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -763,13 +735,13 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>0.47410119023429748</v>
+        <v>0.4741011902342975</v>
       </c>
       <c r="D20">
-        <v>1.3868899817274899E-6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.38688998172749E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -783,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -791,13 +763,13 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>0.90202522649650008</v>
+        <v>0.9020252264965001</v>
       </c>
       <c r="D22">
-        <v>2.4991957590864579E-35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.499195759086458E-35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -811,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -819,13 +791,13 @@
         <v>20</v>
       </c>
       <c r="C24">
-        <v>0.48567997012594649</v>
+        <v>0.4856799701259465</v>
       </c>
       <c r="D24">
-        <v>6.9813573997475131E-7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.981357399747513E-07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -833,13 +805,13 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>0.43623334005978143</v>
+        <v>0.4362333400597814</v>
       </c>
       <c r="D25">
-        <v>1.10718522126877E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.10718522126877E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -847,13 +819,13 @@
         <v>21</v>
       </c>
       <c r="C26">
-        <v>0.46632702053952479</v>
+        <v>0.4663270205395248</v>
       </c>
       <c r="D26">
-        <v>2.1684751736476682E-6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.168475173647668E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -861,13 +833,13 @@
         <v>22</v>
       </c>
       <c r="C27">
-        <v>0.46761522455859972</v>
+        <v>0.4676152245585997</v>
       </c>
       <c r="D27">
-        <v>2.0151994096119441E-6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.015199409611944E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -875,13 +847,13 @@
         <v>23</v>
       </c>
       <c r="C28">
-        <v>0.49488150954456173</v>
+        <v>0.4948815095445617</v>
       </c>
       <c r="D28">
-        <v>3.9729688074906681E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.972968807490668E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -889,13 +861,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>-0.44045396900382988</v>
+        <v>-0.4404539690038299</v>
       </c>
       <c r="D29">
-        <v>8.8903967908931921E-6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.890396790893192E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -903,13 +875,13 @@
         <v>24</v>
       </c>
       <c r="C30">
-        <v>-0.49502753345753903</v>
+        <v>-0.495027533457539</v>
       </c>
       <c r="D30">
-        <v>3.9370592396655653E-7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.937059239665565E-07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -917,13 +889,13 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>0.72057376303562537</v>
+        <v>0.7205737630356254</v>
       </c>
       <c r="D31">
-        <v>2.6685160777461421E-16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.668516077746142E-16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -937,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -945,13 +917,13 @@
         <v>17</v>
       </c>
       <c r="C33">
-        <v>0.42480979847573053</v>
+        <v>0.4248097984757305</v>
       </c>
       <c r="D33">
-        <v>1.976399333596316E-5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.976399333596316E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -965,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -973,13 +945,13 @@
         <v>15</v>
       </c>
       <c r="C35">
-        <v>0.42480979847573053</v>
+        <v>0.4248097984757305</v>
       </c>
       <c r="D35">
-        <v>1.976399333596316E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.976399333596316E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -993,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1007,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -1024,292 +996,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="A1:D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.47410119023429748</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.3868899817274899E-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.90202522649650008</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2.4991957590864579E-35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.45649242910724541</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.7582394441629279E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.4628163701722709</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.6440007315160229E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.46523571580801892</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.306872611239215E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.51850222322450334</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8.6453312845726472E-8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-0.42385359218260932</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.0726700718036951E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-0.43544744750913822</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.152989743250508E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.48567997012594649</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6.9813573997475131E-7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.43623334005978143</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.10718522126877E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.46632702053952479</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2.1684751736476682E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.46761522455859972</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2.0151994096119441E-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.49488150954456173</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3.9729688074906681E-7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2">
-        <v>-0.44045396900382988</v>
-      </c>
-      <c r="D15" s="2">
-        <v>8.8903967908931921E-6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-0.49502753345753903</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3.9370592396655653E-7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.72057376303562537</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2.6685160777461421E-16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.42480979847573053</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.976399333596316E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.42480979847573053</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.976399333596316E-5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>